--- a/Downloads/PKBhi_QuickHeal-master/Quick_Heal_POC/src/main/resources/data/URLCATData.xlsx
+++ b/Downloads/PKBhi_QuickHeal-master/Quick_Heal_POC/src/main/resources/data/URLCATData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" r:id="rId1" sheetId="1"/>
-    <sheet name="Cache" r:id="rId2" sheetId="2"/>
-    <sheet name="Server" r:id="rId3" sheetId="3"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Cache" sheetId="2" r:id="rId2"/>
+    <sheet name="Server" sheetId="3" r:id="rId3"/>
+    <sheet name="MasterServer" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="126">
   <si>
     <t>Url</t>
   </si>
@@ -156,9 +157,6 @@
     <t>4872</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>4873</t>
   </si>
   <si>
@@ -282,90 +280,139 @@
     <t>16</t>
   </si>
   <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_37_2</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_37_3</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_37_31</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_37_32</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
-    <t>2018_20_8_18_39_26</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_39_27</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_40_23</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_40_24</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_41_53</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_41_54</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_43_11</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_43_12</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_43_13</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_44_52</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_44_53</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_38</t>
-  </si>
-  <si>
     <t>2018_20_8_18_45_39</t>
   </si>
   <si>
-    <t>2018_20_8_18_47_21</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_47_22</t>
+    <t>2018_20_8_18_45_40</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_41</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_42</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_43</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_44</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_45</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_46</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_47</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_48</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_49</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_50</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_51</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_52</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_53</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_54</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_55</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_56</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_57</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_58</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_59</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_60</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_61</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_62</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_63</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_64</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_65</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_66</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_67</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_68</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_69</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_70</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_71</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_72</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_73</t>
+  </si>
+  <si>
+    <t>2018_20_8_18_45_74</t>
+  </si>
+  <si>
+    <t>amazon.com</t>
+  </si>
+  <si>
+    <t>udemy.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,20 +450,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,10 +483,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -471,7 +521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,7 +556,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,7 +644,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -603,13 +653,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -619,7 +669,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -628,7 +678,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -637,7 +687,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -647,12 +697,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -683,7 +733,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -702,7 +752,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -714,8 +764,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
@@ -723,7 +773,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
+    <col min="1" max="1" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -912,449 +962,561 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1368,20 +1530,20 @@
         <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1394,7 +1556,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
@@ -1414,58 +1576,58 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -1474,12 +1636,12 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1494,172 +1656,172 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1674,12 +1836,12 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1694,52 +1856,52 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1754,32 +1916,32 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1794,18 +1956,18 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>39</v>
@@ -1814,72 +1976,72 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E25" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1894,32 +2056,32 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1934,78 +2096,78 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>39</v>
@@ -2014,38 +2176,38 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>39</v>
@@ -2054,12 +2216,12 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -2074,12 +2236,12 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -2094,13 +2256,78 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="www.web.whatsapp.com/??/en" r:id="rId1" ref="B13"/>
+    <hyperlink ref="B13" r:id="rId1" display="www.web.whatsapp.com/??/en"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Downloads/PKBhi_QuickHeal-master/Quick_Heal_POC/src/main/resources/data/URLCATData.xlsx
+++ b/Downloads/PKBhi_QuickHeal-master/Quick_Heal_POC/src/main/resources/data/URLCATData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Cache" sheetId="2" r:id="rId2"/>
-    <sheet name="Server" sheetId="3" r:id="rId3"/>
-    <sheet name="MasterServer" sheetId="4" r:id="rId4"/>
+    <sheet name="Input" r:id="rId1" sheetId="1"/>
+    <sheet name="Cache" r:id="rId2" sheetId="5"/>
+    <sheet name="Server" r:id="rId3" sheetId="3"/>
+    <sheet name="MasterServer" r:id="rId4" sheetId="4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="172">
   <si>
     <t>Url</t>
   </si>
@@ -271,136 +271,275 @@
     <t>TimeStamp</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>amazon.com</t>
+  </si>
+  <si>
+    <t>udemy.com</t>
+  </si>
+  <si>
+    <t>ndtv.com</t>
+  </si>
+  <si>
+    <t>yahoo.com</t>
+  </si>
+  <si>
+    <t>indiaeducationdiary.in</t>
+  </si>
+  <si>
+    <t>seleniumhq.org</t>
+  </si>
+  <si>
+    <t>mvnrepository.com</t>
+  </si>
+  <si>
+    <t>instagram.com</t>
+  </si>
+  <si>
+    <t>twitter.com</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>whatsapp.com</t>
+  </si>
+  <si>
+    <t>youtube.com</t>
+  </si>
+  <si>
+    <t>snapchat.com</t>
+  </si>
+  <si>
+    <t>snapdeal.com</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:41</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:42</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:43</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:44</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:45</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:46</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:47</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:49</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:52</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:53</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:55</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:56</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:58</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:59</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:60</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:62</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:63</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:64</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:65</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:66</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:68</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:69</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:70</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:71</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:72</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:73</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:74</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:24:29</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:51</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:54</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:57</t>
+  </si>
+  <si>
+    <t>2018-20-8 18:45:61</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_39</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_40</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_41</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_42</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_43</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_44</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_45</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_46</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_47</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_48</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_49</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_50</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_51</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_52</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_53</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_54</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_55</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_56</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_57</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_58</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_59</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_60</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_61</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_62</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_63</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_64</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_65</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_66</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_67</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_68</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_69</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_70</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_71</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_72</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_73</t>
-  </si>
-  <si>
-    <t>2018_20_8_18_45_74</t>
-  </si>
-  <si>
-    <t>amazon.com</t>
-  </si>
-  <si>
-    <t>udemy.com</t>
+    <t>2018-22-8  15:40:41</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:42</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:45</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:48</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:49</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:52</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:53</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:54</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:59</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:60</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:61</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:62</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:63</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:64</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:65</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:66</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:67</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:68</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:69</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:70</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:71</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:72</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:73</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:74</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:75</t>
+  </si>
+  <si>
+    <t>2018-22-8  15:40:76</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,22 +590,22 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -483,10 +622,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -521,7 +660,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,7 +695,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,7 +783,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -653,13 +792,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -669,7 +808,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -678,7 +817,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -687,7 +826,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -697,12 +836,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -733,7 +872,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -752,7 +891,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -764,8 +903,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
@@ -773,7 +912,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -962,23 +1101,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1000,13 +1140,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1014,27 +1154,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1042,13 +1180,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1056,13 +1194,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1070,69 +1208,61 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,41 +1270,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1182,341 +1308,343 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>85</v>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>85</v>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>85</v>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>85</v>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>85</v>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>85</v>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>85</v>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>85</v>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>116</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>85</v>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>85</v>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>85</v>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>85</v>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>85</v>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A16"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B3:B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,10 +1654,10 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E1" t="s">
@@ -1543,120 +1671,120 @@
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,16 +1795,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1687,16 +1815,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,16 +1835,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1727,16 +1855,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,16 +1875,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1767,16 +1895,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,16 +1915,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,16 +1935,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1836,7 +1964,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,7 +1984,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1867,16 +1995,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1887,16 +2015,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,7 +2044,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1927,16 +2055,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1956,7 +2084,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,16 +2095,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1987,16 +2115,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2007,16 +2135,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,7 +2155,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>56</v>
@@ -2036,7 +2164,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2056,7 +2184,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2067,7 +2195,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>56</v>
@@ -2076,7 +2204,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2096,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2107,16 +2235,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2127,16 +2255,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,7 +2275,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>59</v>
@@ -2156,7 +2284,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2167,7 +2295,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>39</v>
@@ -2176,7 +2304,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2187,16 +2315,16 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2207,16 +2335,16 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,7 +2364,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,33 +2384,28 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="www.web.whatsapp.com/??/en"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2301,33 +2424,201 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Downloads/PKBhi_QuickHeal-master/Quick_Heal_POC/src/main/resources/data/URLCATData.xlsx
+++ b/Downloads/PKBhi_QuickHeal-master/Quick_Heal_POC/src/main/resources/data/URLCATData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="2" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="Input" r:id="rId1" sheetId="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="178">
   <si>
     <t>Url</t>
   </si>
@@ -148,9 +148,6 @@
     <t>4871</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>4e62f7e7ebe0465088441310c850a60a</t>
   </si>
   <si>
@@ -343,12 +340,6 @@
     <t>2018-20-8 18:45:44</t>
   </si>
   <si>
-    <t>2018-20-8 18:45:45</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:46</t>
-  </si>
-  <si>
     <t>2018-20-8 18:45:47</t>
   </si>
   <si>
@@ -448,9 +439,6 @@
     <t>2018-22-8  15:40:41</t>
   </si>
   <si>
-    <t>2018-22-8  15:40:42</t>
-  </si>
-  <si>
     <t>208</t>
   </si>
   <si>
@@ -463,69 +451,12 @@
     <t>2018-22-8  15:40:49</t>
   </si>
   <si>
-    <t>2018-22-8  15:40:52</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:53</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:54</t>
-  </si>
-  <si>
     <t>2018-22-8  15:40:59</t>
   </si>
   <si>
     <t>2018-22-8  15:40:60</t>
   </si>
   <si>
-    <t>2018-22-8  15:40:61</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:62</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:63</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:64</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:65</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:66</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:67</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:68</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:69</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:70</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:71</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:72</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:73</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:74</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:75</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:76</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
@@ -533,6 +464,93 @@
   </si>
   <si>
     <t>555</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:14:33</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:14:34</t>
+  </si>
+  <si>
+    <t>2018-08-23 10:14:33</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:31:31</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:31:32</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2018-08-23 12:14:33</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:32:46</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:32:47</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:32:48</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:32:49</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:32:50</t>
+  </si>
+  <si>
+    <t>2018-08-23 11:32:49</t>
+  </si>
+  <si>
+    <t>2018-08-23 08:32:49</t>
+  </si>
+  <si>
+    <t>2018-08-23 07:32:49</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:35:32</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:35:33</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:35:34</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:35:35</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:36:03</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:36:04</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:36:05</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:36:06</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:36:07</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:37:49</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:37:50</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:37:51</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:37:52</t>
   </si>
 </sst>
 </file>
@@ -593,12 +611,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1109,7 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1129,10 +1148,10 @@
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,13 +1159,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,9 +1176,8 @@
         <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1169,10 +1187,10 @@
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,10 +1201,10 @@
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,10 +1215,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1208,61 +1226,57 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7"/>
+        <v>146</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8"/>
+        <v>147</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9"/>
+        <v>147</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10"/>
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,12 +1284,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12"/>
+        <v>148</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1287,7 +1300,6 @@
       <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1297,10 +1309,10 @@
         <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1311,10 +1323,10 @@
         <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,7 +1340,7 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,10 +1351,10 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,10 +1365,10 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1367,10 +1379,10 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1381,10 +1393,10 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1395,10 +1407,10 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1412,7 +1424,7 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1426,7 +1438,7 @@
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1437,10 +1449,10 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1451,10 +1463,10 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1465,10 +1477,10 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1482,7 +1494,7 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1493,10 +1505,10 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,7 +1522,7 @@
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1521,9 +1533,8 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1533,10 +1544,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1547,10 +1558,10 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,7 +1575,7 @@
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +1589,7 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,10 +1600,10 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,7 +1617,7 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,7 +1631,7 @@
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1636,15 +1647,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1658,13 +1669,13 @@
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1675,21 +1686,21 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>142</v>
+        <v>43</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1698,18 +1709,18 @@
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>145</v>
+        <v>43</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1718,38 +1729,38 @@
         <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>145</v>
+        <v>43</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>145</v>
+        <v>43</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1758,178 +1769,178 @@
         <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>145</v>
+        <v>43</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>142</v>
+        <v>43</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>146</v>
+        <v>43</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>146</v>
+        <v>43</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>147</v>
+        <v>43</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>147</v>
+        <v>43</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>147</v>
+        <v>43</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>148</v>
+        <v>43</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>149</v>
+        <v>43</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1938,60 +1949,60 @@
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>150</v>
+        <v>43</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>151</v>
+        <v>43</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>151</v>
+        <v>43</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
@@ -2001,15 +2012,15 @@
         <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>151</v>
+        <v>43</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -2021,15 +2032,15 @@
         <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" t="s">
-        <v>151</v>
+        <v>43</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -2041,35 +2052,35 @@
         <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>151</v>
+        <v>43</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>152</v>
+        <v>43</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -2081,15 +2092,15 @@
         <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>153</v>
+        <v>43</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -2098,18 +2109,18 @@
         <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>154</v>
+        <v>43</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -2118,58 +2129,58 @@
         <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" t="s">
-        <v>155</v>
+        <v>43</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" t="s">
-        <v>156</v>
+        <v>43</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" t="s">
-        <v>157</v>
+        <v>43</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2181,15 +2192,15 @@
         <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" t="s">
-        <v>158</v>
+        <v>43</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -2198,178 +2209,178 @@
         <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" t="s">
-        <v>159</v>
+        <v>43</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" t="s">
-        <v>160</v>
+        <v>43</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" t="s">
-        <v>161</v>
+        <v>43</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" t="s">
-        <v>162</v>
+        <v>43</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" t="s">
-        <v>163</v>
+        <v>43</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" t="s">
-        <v>164</v>
+        <v>43</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" t="s">
-        <v>165</v>
+        <v>43</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" t="s">
-        <v>166</v>
+        <v>43</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" t="s">
-        <v>167</v>
+        <v>43</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -2381,13 +2392,16 @@
         <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" t="s">
-        <v>168</v>
+        <v>43</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B18"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -2416,99 +2430,99 @@
         <v>37</v>
       </c>
       <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
@@ -2517,68 +2531,68 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
@@ -2587,35 +2601,35 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Downloads/PKBhi_QuickHeal-master/Quick_Heal_POC/src/main/resources/data/URLCATData.xlsx
+++ b/Downloads/PKBhi_QuickHeal-master/Quick_Heal_POC/src/main/resources/data/URLCATData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" r:id="rId1" sheetId="1"/>
-    <sheet name="Cache" r:id="rId2" sheetId="5"/>
-    <sheet name="Server" r:id="rId3" sheetId="3"/>
-    <sheet name="MasterServer" r:id="rId4" sheetId="4"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Cache" sheetId="5" r:id="rId2"/>
+    <sheet name="Server" sheetId="3" r:id="rId3"/>
+    <sheet name="MasterServer" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="260">
   <si>
     <t>Url</t>
   </si>
@@ -268,296 +268,541 @@
     <t>TimeStamp</t>
   </si>
   <si>
+    <t>amazon.com</t>
+  </si>
+  <si>
+    <t>udemy.com</t>
+  </si>
+  <si>
+    <t>ndtv.com</t>
+  </si>
+  <si>
+    <t>yahoo.com</t>
+  </si>
+  <si>
+    <t>indiaeducationdiary.in</t>
+  </si>
+  <si>
+    <t>seleniumhq.org</t>
+  </si>
+  <si>
+    <t>mvnrepository.com</t>
+  </si>
+  <si>
+    <t>instagram.com</t>
+  </si>
+  <si>
+    <t>twitter.com</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>whatsapp.com</t>
+  </si>
+  <si>
+    <t>youtube.com</t>
+  </si>
+  <si>
+    <t>snapchat.com</t>
+  </si>
+  <si>
+    <t>snapdeal.com</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:37:75</t>
+  </si>
+  <si>
+    <t>2018-08-23 18:33:34</t>
+  </si>
+  <si>
+    <t>2018-08-27 10:55:58</t>
+  </si>
+  <si>
+    <t>2018-08-27 10:59:45</t>
+  </si>
+  <si>
+    <t>2018-08-27 10:59:46</t>
+  </si>
+  <si>
+    <t>2018-08-27 10:59:47</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:42</t>
+  </si>
+  <si>
+    <t>2018-08-27 05:00:41</t>
+  </si>
+  <si>
+    <t>www.toolsqa.com/</t>
+  </si>
+  <si>
+    <t>www.toolsqa.com/cucumber/cucumber-tutorial/</t>
+  </si>
+  <si>
+    <t>www.toolsqa.com/mobile-automation/appium/appium-tutorial/</t>
+  </si>
+  <si>
+    <t>www.toolsqa.com/api-automation-testing-tutorial/</t>
+  </si>
+  <si>
+    <t>www.toolsqa.com/git-tutorial/</t>
+  </si>
+  <si>
+    <t>www.toolsqa.com/selenium-webdriver/testng-tutorial/</t>
+  </si>
+  <si>
+    <t>www.toolsqa.com/live-onsite-selenium-corporate-trainings/</t>
+  </si>
+  <si>
+    <t>www.w3schools.com/</t>
+  </si>
+  <si>
+    <t>www.w3schools.com/js/js_json_intro.asp</t>
+  </si>
+  <si>
+    <t>www.w3schools.com/js/js_array_iteration.asp</t>
+  </si>
+  <si>
+    <t>www.w3schools.com/js/js_cookies.asp</t>
+  </si>
+  <si>
+    <t>www.w3schools.com/python/python_strings.asp</t>
+  </si>
+  <si>
+    <t>www.w3schools.com/python/python_arrays.asp</t>
+  </si>
+  <si>
+    <t>www.w3schools.com/python/python_iterators.asp</t>
+  </si>
+  <si>
+    <t>www.w3schools.com/python/python_mysql_insert.asp</t>
+  </si>
+  <si>
+    <t>www.w3schools.com/python/python_ref_string.asp</t>
+  </si>
+  <si>
+    <t>www.ebay.in/cat/mobiles</t>
+  </si>
+  <si>
+    <t>www.thesouledstore.com/explore/notebooks</t>
+  </si>
+  <si>
+    <t>www.thesouledstore.com/</t>
+  </si>
+  <si>
+    <t>www.thesouledstore.com/explore/backpacks</t>
+  </si>
+  <si>
+    <t>www.thesouledstore.com/explore/mugs</t>
+  </si>
+  <si>
+    <t>www.thesouledstore.com/mobile-covers</t>
+  </si>
+  <si>
+    <t>www.thesouledstore.com/explore/tote-bags</t>
+  </si>
+  <si>
+    <t>www.thesouledstore.com/explore/hoodies</t>
+  </si>
+  <si>
+    <t>www.urbanladder.com/</t>
+  </si>
+  <si>
+    <t>www.pepperfry.com/</t>
+  </si>
+  <si>
+    <t>www.pepperfry.com/home-decor.html</t>
+  </si>
+  <si>
+    <t>www.pepperfry.com/wall-art.html</t>
+  </si>
+  <si>
+    <t>www.pepperfry.com/lamps-lighting.html</t>
+  </si>
+  <si>
+    <t>www.pepperfry.com/kitchen-dining.html</t>
+  </si>
+  <si>
+    <t>www.pepperfry.com/curios-showpieces.html</t>
+  </si>
+  <si>
+    <t>4907</t>
+  </si>
+  <si>
+    <t>4908</t>
+  </si>
+  <si>
+    <t>4909</t>
+  </si>
+  <si>
+    <t>4910</t>
+  </si>
+  <si>
+    <t>4911</t>
+  </si>
+  <si>
+    <t>4912</t>
+  </si>
+  <si>
+    <t>4913</t>
+  </si>
+  <si>
+    <t>4914</t>
+  </si>
+  <si>
+    <t>4915</t>
+  </si>
+  <si>
+    <t>4916</t>
+  </si>
+  <si>
+    <t>4917</t>
+  </si>
+  <si>
+    <t>4918</t>
+  </si>
+  <si>
+    <t>4919</t>
+  </si>
+  <si>
+    <t>4920</t>
+  </si>
+  <si>
+    <t>4921</t>
+  </si>
+  <si>
+    <t>4922</t>
+  </si>
+  <si>
+    <t>4923</t>
+  </si>
+  <si>
+    <t>4924</t>
+  </si>
+  <si>
+    <t>4925</t>
+  </si>
+  <si>
+    <t>4926</t>
+  </si>
+  <si>
+    <t>4927</t>
+  </si>
+  <si>
+    <t>4928</t>
+  </si>
+  <si>
+    <t>4929</t>
+  </si>
+  <si>
+    <t>4930</t>
+  </si>
+  <si>
+    <t>4931</t>
+  </si>
+  <si>
+    <t>4932</t>
+  </si>
+  <si>
+    <t>4933</t>
+  </si>
+  <si>
+    <t>4934</t>
+  </si>
+  <si>
+    <t>4935</t>
+  </si>
+  <si>
+    <t>4936</t>
+  </si>
+  <si>
+    <t>4937</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:43</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:44</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:45</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:46</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:47</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:48</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:49</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:50</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:51</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:52</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:53</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:54</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:55</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:56</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:57</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:58</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:59</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:60</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:61</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:62</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:63</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:64</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:65</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:66</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:67</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:68</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:69</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:70</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:71</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:72</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:73</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:74</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>amazon.com</t>
-  </si>
-  <si>
-    <t>udemy.com</t>
-  </si>
-  <si>
-    <t>ndtv.com</t>
-  </si>
-  <si>
-    <t>yahoo.com</t>
-  </si>
-  <si>
-    <t>indiaeducationdiary.in</t>
-  </si>
-  <si>
-    <t>seleniumhq.org</t>
-  </si>
-  <si>
-    <t>mvnrepository.com</t>
-  </si>
-  <si>
-    <t>instagram.com</t>
-  </si>
-  <si>
-    <t>twitter.com</t>
-  </si>
-  <si>
-    <t>facebook.com</t>
-  </si>
-  <si>
-    <t>whatsapp.com</t>
-  </si>
-  <si>
-    <t>youtube.com</t>
-  </si>
-  <si>
-    <t>snapchat.com</t>
-  </si>
-  <si>
-    <t>snapdeal.com</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:41</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:42</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:43</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:44</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:47</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:49</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:52</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:53</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:55</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:56</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:58</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:59</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:60</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:62</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:63</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:64</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:65</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:66</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:68</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:69</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:70</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:71</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:72</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:73</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:74</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:24:29</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:51</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:54</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:57</t>
-  </si>
-  <si>
-    <t>2018-20-8 18:45:61</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:75</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:76</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:77</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:78</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:79</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:80</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:81</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:82</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:83</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:84</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:85</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:86</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:87</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:90</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:91</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:92</t>
+  </si>
+  <si>
+    <t>2018-08-23 05:33:35</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>2018-22-8  15:40:41</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:45</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:48</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:49</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:59</t>
-  </si>
-  <si>
-    <t>2018-22-8  15:40:60</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:14:33</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:14:34</t>
-  </si>
-  <si>
-    <t>2018-08-23 10:14:33</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:31:31</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:31:32</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>2018-08-23 12:14:33</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:32:46</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:32:47</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:32:48</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:32:49</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:32:50</t>
-  </si>
-  <si>
-    <t>2018-08-23 11:32:49</t>
-  </si>
-  <si>
-    <t>2018-08-23 08:32:49</t>
-  </si>
-  <si>
-    <t>2018-08-23 07:32:49</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:35:32</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:35:33</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:35:34</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:35:35</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:36:03</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:36:04</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:36:05</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:36:06</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:36:07</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:37:49</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:37:50</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:37:51</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:37:52</t>
+    <t>2018-08-27 12:09:19</t>
+  </si>
+  <si>
+    <t>2018-08-27 12:09:21</t>
+  </si>
+  <si>
+    <t>2018-08-27 13:59:27</t>
+  </si>
+  <si>
+    <t>2018-08-27 13:59:28</t>
+  </si>
+  <si>
+    <t>2018-08-27 13:59:30</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:01:89</t>
+  </si>
+  <si>
+    <t>2018-08-27 14:09:04</t>
+  </si>
+  <si>
+    <t>2018-08-27 14:09:05</t>
+  </si>
+  <si>
+    <t>2018-08-27 14:09:06</t>
+  </si>
+  <si>
+    <t>2018-08-27 14:13:25</t>
+  </si>
+  <si>
+    <t>2018-08-27 14:18:49</t>
+  </si>
+  <si>
+    <t>2018-08-27 14:18:50</t>
+  </si>
+  <si>
+    <t>2018-08-27 14:18:51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -608,23 +853,24 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" quotePrefix="1" xfId="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -641,10 +887,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -679,7 +925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,7 +960,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -802,7 +1048,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -811,13 +1057,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -827,7 +1073,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -836,7 +1082,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -845,7 +1091,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -855,12 +1101,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -891,7 +1137,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -910,7 +1156,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -922,16 +1168,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
+    <col min="1" max="1" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1119,25 +1365,120 @@
         <v>36</v>
       </c>
     </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="1" max="1" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1159,13 +1500,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>139</v>
+        <v>222</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1173,10 +1514,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>99</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,13 +1528,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1198,13 +1542,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,13 +1556,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,10 +1570,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>222</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,10 +1584,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,10 +1598,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,10 +1612,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>148</v>
+        <v>101</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,13 +1626,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
-        <v>139</v>
+      <c r="D11" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,10 +1640,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>148</v>
+        <v>101</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1295,10 +1654,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>225</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1306,13 +1668,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" t="s">
-        <v>134</v>
+        <v>225</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,10 +1685,10 @@
         <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,13 +1696,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,13 +1710,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" t="s">
-        <v>135</v>
+        <v>103</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,13 +1724,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,13 +1738,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,13 +1752,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" t="s">
-        <v>136</v>
+        <v>103</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,13 +1766,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1421,10 +1783,10 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,13 +1794,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>115</v>
+        <v>225</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,13 +1808,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" t="s">
-        <v>137</v>
+        <v>222</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1463,10 +1825,10 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" t="s">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1477,10 +1839,10 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>117</v>
+        <v>98</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,10 +1853,10 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>118</v>
+        <v>100</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1505,10 +1867,10 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,10 +1881,10 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
+        <v>98</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,10 +1892,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>219</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,10 +1909,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" t="s">
-        <v>121</v>
+        <v>103</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,10 +1923,10 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>122</v>
+        <v>102</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,13 +1934,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>123</v>
+        <v>222</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1583,13 +1948,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>124</v>
+        <v>98</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,10 +1965,10 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" t="s">
-        <v>125</v>
+        <v>103</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1976,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" t="s">
-        <v>126</v>
+        <v>100</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,32 +1995,32 @@
       <c r="C37" t="s">
         <v>39</v>
       </c>
-      <c r="D37" t="s">
-        <v>127</v>
+      <c r="D37" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A16"/>
+    <hyperlink ref="A16" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1685,17 +2050,17 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>138</v>
+      <c r="C2" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,17 +2070,17 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
+      <c r="C3" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1725,17 +2090,17 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
+      <c r="C4" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,17 +2110,17 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>138</v>
+      <c r="C5" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,17 +2130,17 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>38</v>
+      <c r="C6" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,17 +2150,17 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>138</v>
+      <c r="C7" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1805,17 +2170,17 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>138</v>
+      <c r="C8" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1825,17 +2190,17 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>138</v>
+      <c r="C9" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1845,17 +2210,17 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>138</v>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1865,17 +2230,17 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>138</v>
+      <c r="C11" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,17 +2250,17 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>138</v>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1905,17 +2270,17 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>138</v>
+      <c r="C13" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,17 +2290,17 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>138</v>
+      <c r="C14" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1945,17 +2310,17 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1965,17 +2330,17 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>138</v>
+      <c r="C16" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,17 +2350,17 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>138</v>
+      <c r="C17" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2005,17 +2370,17 @@
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>38</v>
+      <c r="C18" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2025,17 +2390,17 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>38</v>
+      <c r="C19" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,17 +2410,17 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>38</v>
+      <c r="C20" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2065,17 +2430,17 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>138</v>
+      <c r="C21" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2085,17 +2450,17 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2105,17 +2470,17 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>38</v>
+      <c r="C23" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2125,17 +2490,17 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>38</v>
+      <c r="C24" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2145,17 +2510,17 @@
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>138</v>
+      <c r="C25" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2165,17 +2530,17 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>138</v>
+      <c r="C26" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2185,17 +2550,17 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2205,17 +2570,17 @@
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,17 +2590,17 @@
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>138</v>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>153</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2245,17 +2610,17 @@
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>138</v>
+      <c r="C30" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2265,17 +2630,17 @@
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>138</v>
+      <c r="C31" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,17 +2650,17 @@
       <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
-        <v>138</v>
+      <c r="C32" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,17 +2670,17 @@
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
-        <v>138</v>
+      <c r="C33" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,17 +2690,17 @@
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>138</v>
+      <c r="C34" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,17 +2710,17 @@
       <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
-        <v>138</v>
+      <c r="C35" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2365,17 +2730,17 @@
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>138</v>
+      <c r="C36" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2385,7 +2750,7 @@
       <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2395,31 +2760,651 @@
         <v>43</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>150</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B18"/>
+    <hyperlink ref="B18" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2438,201 +3423,201 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
+        <v>83</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
+        <v>84</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
+        <v>102</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
+        <v>85</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" t="s">
-        <v>142</v>
+        <v>100</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>138</v>
+        <v>86</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" t="s">
-        <v>143</v>
+        <v>100</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
+        <v>87</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
+        <v>225</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
+        <v>89</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>144</v>
+        <v>103</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
+        <v>90</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>145</v>
+        <v>100</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
-        <v>107</v>
+      <c r="D10" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
+        <v>92</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
+        <v>225</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
+        <v>93</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>108</v>
+        <v>222</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>139</v>
+        <v>100</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" t="s">
-        <v>131</v>
+        <v>98</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>